--- a/apitest/src/test/resources/cases_v3.xlsx
+++ b/apitest/src/test/resources/cases_v3.xlsx
@@ -8,18 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="注册用例" sheetId="2" r:id="rId2"/>
-    <sheet name="登录用例" sheetId="3" r:id="rId3"/>
+    <sheet name="测试用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">注册用例!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>接口编号</t>
   </si>
@@ -813,6 +812,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,13 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1229,7 +1228,7 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1238,7 +1237,7 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9">
@@ -1445,191 +1444,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3363636363636" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.1090909090909" style="5" customWidth="1"/>
-    <col min="3" max="3" width="66" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.1090909090909" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1090909090909" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.1090909090909" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1638,125 +1637,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="9.66363636363636" customWidth="1"/>
-    <col min="2" max="2" width="26.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="50.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="9.66363636363636" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/apitest/src/test/resources/cases_v3.xlsx
+++ b/apitest/src/test/resources/cases_v3.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7730" activeTab="1"/>
+    <workbookView windowWidth="18520" windowHeight="7730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
     <sheet name="测试用例" sheetId="2" r:id="rId2"/>
+    <sheet name="测试ReadExcel" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试用例!$A$1:$C$7</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>接口编号</t>
   </si>
@@ -812,25 +813,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1228,7 +1229,7 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1237,7 +1238,7 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9">
@@ -1438,197 +1439,197 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C19 C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1090909090909" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.1090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.3363636363636" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.1090909090909" style="5" customWidth="1"/>
+    <col min="3" max="3" width="66" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.1090909090909" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1637,4 +1638,83 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="27.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="53.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="31.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/apitest/src/test/resources/cases_v3.xlsx
+++ b/apitest/src/test/resources/cases_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7730" activeTab="2"/>
+    <workbookView windowWidth="18520" windowHeight="7730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>接口编号</t>
   </si>
@@ -168,19 +168,37 @@
     <t>重复以上的手机号+密码</t>
   </si>
   <si>
-    <t>{"mobilephone":"19000000000","pwd":""}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"123","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"19000000000","pwd":"12345"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"19000000000","pwd":"123456"}</t>
+    <t>{"mobile_phone":"13221400113","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>非当前账号id</t>
+  </si>
+  <si>
+    <t>{"member_id":"-1","amount":"6300"}</t>
+  </si>
+  <si>
+    <t>超过50万</t>
+  </si>
+  <si>
+    <t>{"member_id":"7795407","amount":"1116300"}</t>
+  </si>
+  <si>
+    <t>负数</t>
+  </si>
+  <si>
+    <t>{"member_id":"7795407","amount":"-6300"}</t>
+  </si>
+  <si>
+    <t>非数字</t>
+  </si>
+  <si>
+    <t>{"member_id":"7795407","amount":"SSS"}</t>
+  </si>
+  <si>
+    <t>正确用例</t>
+  </si>
+  <si>
+    <t>{"member_id":"7795407","amount":"6300"}</t>
   </si>
 </sst>
 </file>
@@ -809,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +851,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,16 +1241,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1234,23 +1258,23 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -1258,16 +1282,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -1275,16 +1299,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -1292,16 +1316,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -1309,16 +1333,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
@@ -1326,16 +1350,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
@@ -1343,16 +1367,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
@@ -1360,16 +1384,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
@@ -1377,16 +1401,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
@@ -1394,16 +1418,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
@@ -1437,16 +1461,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3363636363636" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.1090909090909" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5454545454545" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.6363636363636" style="5" customWidth="1"/>
     <col min="3" max="3" width="66" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.1090909090909" style="7" customWidth="1"/>
   </cols>
@@ -1476,11 +1500,11 @@
         <v>34</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1489,12 +1513,12 @@
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
+      <c r="D3" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1503,12 +1527,12 @@
       <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
+      <c r="D4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1517,12 +1541,12 @@
       <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
+      <c r="D5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1531,22 +1555,22 @@
       <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1557,10 +1581,10 @@
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1571,10 +1595,10 @@
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1585,10 +1609,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1599,10 +1623,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1613,10 +1637,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1627,10 +1651,150 @@
         <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3">
-        <v>2</v>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1809,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/apitest/src/test/resources/cases_v3.xlsx
+++ b/apitest/src/test/resources/cases_v3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>接口编号</t>
   </si>
@@ -159,7 +159,7 @@
     <t>合格手机号+合格密码</t>
   </si>
   <si>
-    <t>{"mobile_phone":"19000000000","pwd":"123456"}</t>
+    <t>{"mobile_phone":"13221400113","pwd":"12345678"}</t>
   </si>
   <si>
     <t>6</t>
@@ -168,7 +168,10 @@
     <t>重复以上的手机号+密码</t>
   </si>
   <si>
-    <t>{"mobile_phone":"13221400113","pwd":"12345678"}</t>
+    <t>{"mobile_phone":"13800001003","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13800001002","pwd":"12345678"}</t>
   </si>
   <si>
     <t>非当前账号id</t>
@@ -180,25 +183,25 @@
     <t>超过50万</t>
   </si>
   <si>
-    <t>{"member_id":"7795407","amount":"1116300"}</t>
+    <t>{"member_id":"15290","amount":"1116300"}</t>
   </si>
   <si>
     <t>负数</t>
   </si>
   <si>
-    <t>{"member_id":"7795407","amount":"-6300"}</t>
+    <t>{"member_id":"15290","amount":"-6300"}</t>
   </si>
   <si>
     <t>非数字</t>
   </si>
   <si>
-    <t>{"member_id":"7795407","amount":"SSS"}</t>
+    <t>{"member_id":"15290","amount":"SSS"}</t>
   </si>
   <si>
     <t>正确用例</t>
   </si>
   <si>
-    <t>{"member_id":"7795407","amount":"6300"}</t>
+    <t>{"member_id":15290,"amount":"100"}</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1463,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C14 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1567,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -1637,7 +1640,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1651,7 +1654,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1662,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -1676,10 +1679,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1690,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1704,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -1718,10 +1721,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1732,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -1746,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
@@ -1760,10 +1763,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1774,10 +1777,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1788,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>

--- a/apitest/src/test/resources/cases_v3.xlsx
+++ b/apitest/src/test/resources/cases_v3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>接口编号</t>
   </si>
@@ -117,6 +117,12 @@
     <t>参数</t>
   </si>
   <si>
+    <t>期望响应数据</t>
+  </si>
+  <si>
+    <t>实际响应数据</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -159,16 +165,16 @@
     <t>合格手机号+合格密码</t>
   </si>
   <si>
+    <t>{"mobile_phone":"13800001003","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>重复以上的手机号+密码</t>
+  </si>
+  <si>
     <t>{"mobile_phone":"13221400113","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>重复以上的手机号+密码</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"13800001003","pwd":"12345678"}</t>
   </si>
   <si>
     <t>{"mobile_phone":"13800001002","pwd":"12345678"}</t>
@@ -1464,21 +1470,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C14 C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.5454545454545" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.6363636363636" style="5" customWidth="1"/>
-    <col min="3" max="3" width="66" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.1090909090909" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.45454545454546" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.9090909090909" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.90909090909091" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
+    <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1491,16 +1499,22 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -1508,13 +1522,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -1522,13 +1536,13 @@
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1536,13 +1550,13 @@
     </row>
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1550,13 +1564,13 @@
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -1564,13 +1578,13 @@
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -1578,13 +1592,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1592,13 +1606,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1606,13 +1620,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1620,13 +1634,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1634,13 +1648,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1648,13 +1662,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1665,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -1679,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1693,10 +1707,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1707,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -1721,10 +1735,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1735,10 +1749,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -1749,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
@@ -1763,10 +1777,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1777,10 +1791,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1791,10 +1805,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -1840,13 +1854,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1854,13 +1868,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1868,13 +1882,13 @@
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
